--- a/ExcelDocumentos.xlsx
+++ b/ExcelDocumentos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Documentos" r:id="rId2" sheetId="1" state="visible"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="14">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Ejemplo1</t>
   </si>
   <si>
-    <t>Tue Apr 10 11:07:09 CEST 2018</t>
+    <t>Tue Apr 10 12:40:12 CEST 2018</t>
   </si>
   <si>
     <t>ACTIVO</t>
@@ -64,10 +64,7 @@
     <t>Ejemplo5</t>
   </si>
   <si>
-    <t>Tue Apr 10 11:10:11 CEST 2018</t>
-  </si>
-  <si>
-    <t>Tue Apr 10 11:17:37 CEST 2018</t>
+    <t>Tue Apr 10 12:52:06 CEST 2018</t>
   </si>
 </sst>
 </file>
@@ -100,12 +97,32 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,11 +159,77 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="67">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -164,10 +247,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A2:H31 A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
@@ -191,170 +274,338 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="6" t="n">
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="7" t="n">
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="8" t="n">
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="9" t="n">
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="10" t="n">
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="13" t="n">
         <v>1.0</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
+      <c r="C7" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="14" t="n">
         <v>2.0</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
+      <c r="C8" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="15" t="n">
         <v>3.0</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="C9" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="16" t="n">
         <v>4.0</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
+      <c r="C10" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="17" t="n">
         <v>5.0</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
+      <c r="C11" s="17" t="s">
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="21" t="n">
         <v>2.0</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
+      <c r="C12" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="22" t="n">
         <v>4.0</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
+      <c r="C13" s="22" t="s">
+        <v>5</v>
       </c>
       <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="39" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="65">
+        <v>4.0</v>
+      </c>
+      <c r="B25" t="s" s="66">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s" s="65">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="66">
         <v>10</v>
       </c>
     </row>
@@ -374,10 +625,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H31" activeCellId="0" pane="topLeft" sqref="A2:H31"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
@@ -401,13 +652,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -415,13 +666,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
@@ -429,13 +680,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
@@ -443,13 +694,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="4" t="n">
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
@@ -457,13 +708,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="5" t="n">
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
@@ -471,142 +722,72 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="23" t="n">
         <v>1.0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="25" t="n">
         <v>2.0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="27" t="n">
         <v>3.0</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="29" t="n">
         <v>4.0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="31" t="n">
         <v>5.0</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B11" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>8</v>
       </c>
     </row>
@@ -629,7 +810,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A2:H31 A1"/>
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
@@ -653,58 +834,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="11" t="n">
         <v>2.0</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="12" t="n">
         <v>4.0</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="43" t="n">
         <v>2.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="45" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="46" t="s">
         <v>10</v>
       </c>
     </row>
@@ -727,7 +908,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A2:H31 A1"/>
+      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
@@ -750,86 +931,86 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="18" t="n">
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
+      <c r="C2" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="19" t="n">
         <v>3.0</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
+      <c r="C3" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="20" t="n">
         <v>5.0</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
+      <c r="C4" s="20" t="s">
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="59" t="n">
         <v>3.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="61" t="n">
         <v>5.0</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="62" t="s">
         <v>8</v>
       </c>
     </row>

--- a/ExcelDocumentos.xlsx
+++ b/ExcelDocumentos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Documentos" r:id="rId2" sheetId="1" state="visible"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="13">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Ejemplo1</t>
   </si>
   <si>
-    <t>Tue Apr 10 12:40:12 CEST 2018</t>
+    <t>Tue Apr 10 13:00:43 CEST 2018</t>
   </si>
   <si>
     <t>ACTIVO</t>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Ejemplo5</t>
-  </si>
-  <si>
-    <t>Tue Apr 10 12:52:06 CEST 2018</t>
   </si>
 </sst>
 </file>
@@ -159,33 +156,11 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="45">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -247,9 +222,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -274,338 +249,170 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="11" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="13" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="15" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="17" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="19" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="25" t="n">
         <v>1.0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="27" t="n">
         <v>2.0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="n">
+      <c r="A9" s="29" t="n">
         <v>3.0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="31" t="n">
         <v>4.0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="n">
+      <c r="A11" s="33" t="n">
         <v>5.0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="n">
+      <c r="A12" s="41" t="n">
         <v>2.0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="22" t="n">
+      <c r="A13" t="n" s="43">
         <v>4.0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="44">
         <v>9</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="35" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="37" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="39" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="41" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="49" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="51" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="53" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="55" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="63" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="65">
-        <v>4.0</v>
-      </c>
-      <c r="B25" t="s" s="66">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s" s="65">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s" s="66">
+      <c r="C13" t="s" s="43">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s" s="44">
         <v>10</v>
       </c>
     </row>
@@ -625,7 +432,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
@@ -655,139 +462,69 @@
       <c r="A2" s="1" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="5" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="7" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="9" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="25" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="27" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="29" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="31" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="32" t="s">
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -807,10 +544,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
+      <selection activeCell="G2" activeCellId="0" pane="topLeft" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
@@ -834,58 +571,30 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="n">
+      <c r="A2" s="21" t="n">
         <v>2.0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="23" t="n">
         <v>4.0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="43" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="45" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="46" t="s">
+      <c r="C3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -905,10 +614,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
@@ -931,86 +640,44 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="n">
+      <c r="A2" s="35" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="n">
+      <c r="A3" s="37" t="n">
         <v>3.0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="n">
+      <c r="A4" s="39" t="n">
         <v>5.0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="59" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="61" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="62" t="s">
+      <c r="C4" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>8</v>
       </c>
     </row>
